--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\software\Git\source\repos\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE58B6-CBD5-4038-B244-96B60455A8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>84694</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{F13F5F22-BDEB-4992-9B66-ED7757A7DEBD}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -510,15 +509,495 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天赋异禀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生抑郁</t>
+    <t>天龙人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拥有北京户口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独生子女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有兄弟姐妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间微风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在农村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城中高楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有美国国籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美籍华人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家中老大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最受父母宠爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水性良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被淹死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天免疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会得艾滋病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外家境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外颜值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外快乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母美貌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红颜薄命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+2，体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属蛇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被蛇咬死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人中龙凤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生双重性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳之外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生无性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩情证道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终生不恋爱结婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花连连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12岁前父母都健在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安童年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物大师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物不会意外死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十死无生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家运不顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头着地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班中红人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和同学容易处好关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能轻松学会骑车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永远的神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电竞天才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能和同性交往</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹之下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌毒不沾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不生孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高考+5分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱机会提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老司机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的家人不会心脏病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你退伍后会当官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不孕不育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你生不出孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白头偕老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人至少能活到70岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100岁时才能开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:SPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:MNY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:CHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:STR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十而立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十不惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁时家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从心所欲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老当益壮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时体质+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤发童颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学前启蒙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟来之财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90岁时家境+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30、40、50岁时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、18岁时智力+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、24岁时颜值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成年礼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开光之胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖传药丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的小盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能不明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境为0时家境+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -526,191 +1005,819 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天龙人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拥有北京户口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>独生子女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡间微风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在农村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城中高楼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有美国国籍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美籍华人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家中老大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你最受父母宠爱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水性良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被淹死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先天免疫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会得艾滋病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外家境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外颜值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外智力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外快乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超凡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母美貌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红颜薄命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2，体质-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属蛇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被蛇咬死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>半神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人中龙凤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生双重性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳之外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生无性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩情证道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终生不恋爱结婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花连连</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12岁前父母都健在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安童年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物大师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物不会意外死亡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生残疾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-2</t>
+    <t>快乐为0时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质为0时体质+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命悬一线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智可生财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时智力&gt;8，家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舔狗甚多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时颜值&gt;8，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保胎丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会胎死腹中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[30]</t>
+  </si>
+  <si>
+    <t>AGE?[40]</t>
+  </si>
+  <si>
+    <t>AGE?[50]</t>
+  </si>
+  <si>
+    <t>AGE?[60]</t>
+  </si>
+  <si>
+    <t>AGE?[70]</t>
+  </si>
+  <si>
+    <t>AGE?[5]</t>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+  </si>
+  <si>
+    <t>AGE?[90]</t>
+  </si>
+  <si>
+    <t>AGE?[30,40,50]</t>
+  </si>
+  <si>
+    <t>AGE?[12,18]</t>
+  </si>
+  <si>
+    <t>AGE?[16,24]</t>
+  </si>
+  <si>
+    <t>(AGE?[20])&amp;(INT&gt;8)</t>
+  </si>
+  <si>
+    <t>(AGE?[20])&amp;(CHR&gt;8)</t>
+  </si>
+  <si>
+    <t>你不会遭遇枪击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白化病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考上哈佛大学的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界限突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练有方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相由心生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智多鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+2</t>
+  </si>
+  <si>
+    <t>灵光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用点-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-3，快乐+5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石健身卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身残志坚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活死人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开一扇窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痘痘脸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦痛侍僧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+2</t>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准扶贫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20、30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你10岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20,30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的40~50岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不吃洋快餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想罢了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会上清华大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢没事找事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和家人不会发生车祸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比较自恋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺一门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能听到一些绝密消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界来客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三胎人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你尽可能生三胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的60~90岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加奥赛的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考公务员时一定能考上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入狱会减刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气稍微提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说做事很公平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万里挑一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有强迫症</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握不住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶着投胎，不要初始属性了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1085</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1086</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急了急了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离不弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会离婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>身高不矮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>足量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易胖体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值更容易降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左撇子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯使用左手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克苏鲁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还拥有其他人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不连续存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一个可选天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时候死亡率降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许有护佑作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>魔法棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道有什么用……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返老还童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会回到年轻的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许时间会倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世重修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫失败重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三好生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过劳肥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交际花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交恐惧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -718,1134 +1825,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所有属性-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十死无生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家运不顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头着地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胎教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班中红人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和同学容易处好关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能轻松学会骑车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永远的神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电竞天才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能和同性交往</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹之下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赌毒不沾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不生孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少数民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高考+5分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋爱机会提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老司机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的家人不会心脏病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你退伍后会当官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不孕不育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你生不出孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白头偕老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱人至少能活到70岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100岁时才能开启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:SPR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:MNY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:CHR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:STR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十而立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十不惑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30岁时家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50岁时智力、快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从心所欲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老当益壮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时体质+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹤发童颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学前启蒙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟来之财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90岁时家境+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30、40、50岁时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、18岁时智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>形象管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16、24岁时颜值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成年礼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开光之胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖传药丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的小盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能不明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境为0时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐天派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐为0时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质为0时体质+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命悬一线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智可生财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若20岁时智力&gt;8，家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舔狗甚多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若20岁时颜值&gt;8，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保胎丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会胎死腹中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[30]</t>
-  </si>
-  <si>
-    <t>AGE?[40]</t>
-  </si>
-  <si>
-    <t>AGE?[50]</t>
-  </si>
-  <si>
-    <t>AGE?[60]</t>
-  </si>
-  <si>
-    <t>AGE?[70]</t>
-  </si>
-  <si>
-    <t>AGE?[5]</t>
-  </si>
-  <si>
-    <t>AGE?[18]</t>
-  </si>
-  <si>
-    <t>AGE?[90]</t>
-  </si>
-  <si>
-    <t>AGE?[30,40,50]</t>
-  </si>
-  <si>
-    <t>AGE?[12,18]</t>
-  </si>
-  <si>
-    <t>AGE?[16,24]</t>
-  </si>
-  <si>
-    <t>(AGE?[20])&amp;(INT&gt;8)</t>
-  </si>
-  <si>
-    <t>(AGE?[20])&amp;(CHR&gt;8)</t>
-  </si>
-  <si>
-    <t>你不会遭遇枪击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白化病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛宗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考上哈佛大学的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>驻颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界限突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时体质+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练有方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相由心生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时家境+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智多鑫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+2</t>
-  </si>
-  <si>
-    <t>灵光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神谕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>献祭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用点-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点-3，快乐+5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不懂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石健身卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时体质+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身残志坚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活死人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开一扇窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>痘痘脸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大额头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哀兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&lt;-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抖M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦痛侍僧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海的女儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+2</t>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准扶贫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你20、30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你10岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[10]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[20,30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的40~50岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康饮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不吃洋快餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>互斥天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclusive[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想罢了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会上清华大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢没事找事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你和家人不会发生车祸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢旅游</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你比较自恋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺一门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可能听到一些绝密消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异界来客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三胎人生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你尽可能生三胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的60~90岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加奥赛的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宙斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考公务员时一定能考上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>为人民服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入狱会减刑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气稍微提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天秤座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说做事很公平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万里挑一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你很攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有强迫症</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把握不住</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赶着投胎，不要初始属性了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1084</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1085</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1086</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>急了急了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不离不弃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会离婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>身高不矮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>足量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易胖体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值更容易降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族主义者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄帝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒律</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左撇子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>习惯使用左手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>克苏鲁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还拥有其他人格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不连续存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少一个可选天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时候死亡率降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许有护佑作用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>魔法棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道有什么用……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返老还童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能会回到年轻的时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时光倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许时间会倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转世重修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡劫失败重生</t>
+    <t>大器晚成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50岁时职级+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投错行了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉-3，学识+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2242,14 +2241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomRight" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2270,55 +2269,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2341,37 +2340,37 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2396,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2419,10 +2418,10 @@
         <v>11</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="O5" s="1">
         <v>1113</v>
@@ -2442,13 +2441,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,16 +2469,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>464</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>465</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2487,16 +2486,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>461</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>462</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,16 +2503,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>466</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2524,7 +2523,7 @@
         <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2538,22 +2537,22 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,10 +2560,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2575,22 +2574,22 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2598,22 +2597,22 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2621,10 +2620,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -2633,13 +2632,13 @@
         <v>3</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2647,10 +2646,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2661,10 +2660,10 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2675,10 +2674,10 @@
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2689,10 +2688,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -2718,10 +2717,10 @@
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2735,10 +2734,10 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2752,10 +2751,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -2772,10 +2771,10 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2786,10 +2785,10 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -2815,22 +2814,22 @@
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2838,19 +2837,19 @@
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>11</v>
@@ -2864,16 +2863,16 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2881,16 +2880,16 @@
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2898,10 +2897,10 @@
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2912,10 +2911,10 @@
         <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2926,10 +2925,10 @@
         <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2940,10 +2939,10 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>463</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2957,10 +2956,10 @@
         <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>184</v>
+        <v>468</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2986,10 +2985,10 @@
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -3003,10 +3002,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -3020,10 +3019,10 @@
         <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -3037,10 +3036,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -3054,10 +3053,10 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -3068,10 +3067,10 @@
         <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -3082,10 +3081,10 @@
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3096,10 +3095,10 @@
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -3110,16 +3109,16 @@
         <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,10 +3126,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -3141,10 +3140,10 @@
         <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3155,10 +3154,10 @@
         <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -3169,10 +3168,10 @@
         <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -3183,16 +3182,16 @@
         <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3200,10 +3199,10 @@
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3214,10 +3213,10 @@
         <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -3228,13 +3227,13 @@
         <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3248,13 +3247,13 @@
         <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3268,22 +3267,22 @@
         <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>230</v>
+        <v>469</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>231</v>
+        <v>470</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3291,13 +3290,13 @@
         <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3311,13 +3310,13 @@
         <v>65</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3331,13 +3330,13 @@
         <v>66</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3351,13 +3350,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3371,13 +3370,13 @@
         <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3391,13 +3390,13 @@
         <v>69</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3411,13 +3410,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3431,13 +3430,13 @@
         <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3451,13 +3450,13 @@
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3471,13 +3470,13 @@
         <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3491,13 +3490,13 @@
         <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3511,10 +3510,10 @@
         <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3528,10 +3527,10 @@
         <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3545,10 +3544,10 @@
         <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3559,13 +3558,13 @@
         <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3579,13 +3578,13 @@
         <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3599,13 +3598,13 @@
         <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3619,13 +3618,13 @@
         <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3639,13 +3638,13 @@
         <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3659,10 +3658,10 @@
         <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3673,10 +3672,10 @@
         <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -3687,10 +3686,10 @@
         <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3701,13 +3700,13 @@
         <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3721,13 +3720,13 @@
         <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3741,13 +3740,13 @@
         <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3761,13 +3760,13 @@
         <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3781,13 +3780,13 @@
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3801,13 +3800,13 @@
         <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3821,13 +3820,13 @@
         <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3841,13 +3840,13 @@
         <v>93</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3870,13 +3869,13 @@
         <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3899,13 +3898,13 @@
         <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3928,10 +3927,10 @@
         <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3943,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3951,10 +3950,10 @@
         <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3966,7 +3965,7 @@
         <v>5</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3974,10 +3973,10 @@
         <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3986,7 +3985,7 @@
         <v>-10</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,13 +3993,13 @@
         <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4014,13 +4013,13 @@
         <v>100</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4034,13 +4033,13 @@
         <v>101</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4054,13 +4053,13 @@
         <v>102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4083,13 +4082,13 @@
         <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4112,13 +4111,13 @@
         <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4141,19 +4140,19 @@
         <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>342</v>
+        <v>472</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
       </c>
       <c r="I95" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K95" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4161,10 +4160,10 @@
         <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4178,13 +4177,13 @@
         <v>107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4207,13 +4206,13 @@
         <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4236,13 +4235,13 @@
         <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -4265,13 +4264,13 @@
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4294,10 +4293,10 @@
         <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4314,10 +4313,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4334,13 +4333,13 @@
         <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4366,13 +4365,13 @@
         <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4398,13 +4397,13 @@
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4415,13 +4414,13 @@
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4432,13 +4431,13 @@
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4449,10 +4448,10 @@
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4463,10 +4462,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4477,10 +4476,10 @@
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4491,10 +4490,10 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4505,10 +4504,10 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4519,10 +4518,10 @@
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4533,10 +4532,10 @@
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -4547,22 +4546,22 @@
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="O115" s="1">
         <v>1027</v>
@@ -4579,13 +4578,13 @@
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -4596,10 +4595,10 @@
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -4610,10 +4609,10 @@
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -4624,10 +4623,10 @@
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -4638,10 +4637,10 @@
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -4649,13 +4648,13 @@
     </row>
     <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -4663,13 +4662,13 @@
     </row>
     <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -4677,13 +4676,13 @@
     </row>
     <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -4691,13 +4690,13 @@
     </row>
     <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4706,24 +4705,24 @@
         <v>-20</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -4731,13 +4730,13 @@
     </row>
     <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -4745,13 +4744,13 @@
     </row>
     <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -4759,13 +4758,13 @@
     </row>
     <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -4773,13 +4772,13 @@
     </row>
     <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -4787,13 +4786,13 @@
     </row>
     <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E130" s="1">
         <v>2</v>
@@ -4801,13 +4800,13 @@
     </row>
     <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -4815,13 +4814,13 @@
     </row>
     <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -4829,13 +4828,13 @@
     </row>
     <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -4846,10 +4845,10 @@
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E134" s="1">
         <v>2</v>
@@ -4860,10 +4859,10 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
@@ -4874,10 +4873,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E136" s="1">
         <v>3</v>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="473">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,14 +126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>随身玉佩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红肚兜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,10 +150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>动漫高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1006</t>
   </si>
   <si>
@@ -505,10 +493,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>入宅的可能性翻6倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天龙人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1750,14 +1734,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小时候死亡率降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许有护佑作用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1131</t>
   </si>
   <si>
@@ -1838,6 +1814,30 @@
   </si>
   <si>
     <t>人脉-3，学识+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点钞机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拥有超凡的点钞能力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金算盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拥有超凡的翻打能力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒壮人胆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的酒量特别好。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2244,11 +2244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H94" sqref="H94"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2269,55 +2269,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2340,37 +2340,37 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2378,10 +2378,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>467</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2392,10 +2392,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>469</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2406,73 +2406,52 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="1">
         <v>1</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>471</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>472</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2483,13 +2462,13 @@
     </row>
     <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2500,13 +2479,13 @@
     </row>
     <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2517,13 +2496,13 @@
     </row>
     <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2534,36 +2513,36 @@
     </row>
     <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2571,59 +2550,59 @@
     </row>
     <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -2632,24 +2611,24 @@
         <v>3</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2657,13 +2636,13 @@
     </row>
     <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2671,13 +2650,13 @@
     </row>
     <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2685,13 +2664,13 @@
     </row>
     <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -2714,13 +2693,13 @@
     </row>
     <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2731,13 +2710,13 @@
     </row>
     <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2748,13 +2727,13 @@
     </row>
     <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -2768,13 +2747,13 @@
     </row>
     <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2782,13 +2761,13 @@
     </row>
     <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -2811,48 +2790,48 @@
     </row>
     <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O27" s="1">
         <v>1113</v>
@@ -2860,47 +2839,47 @@
     </row>
     <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2908,13 +2887,13 @@
     </row>
     <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2922,13 +2901,13 @@
     </row>
     <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2936,13 +2915,13 @@
     </row>
     <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2953,13 +2932,13 @@
     </row>
     <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2982,13 +2961,13 @@
     </row>
     <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2999,13 +2978,13 @@
     </row>
     <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -3016,13 +2995,13 @@
     </row>
     <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -3033,13 +3012,13 @@
     </row>
     <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -3050,13 +3029,13 @@
     </row>
     <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -3064,13 +3043,13 @@
     </row>
     <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -3078,13 +3057,13 @@
     </row>
     <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3092,13 +3071,13 @@
     </row>
     <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -3106,30 +3085,30 @@
     </row>
     <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -3137,13 +3116,13 @@
     </row>
     <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3151,13 +3130,13 @@
     </row>
     <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -3165,13 +3144,13 @@
     </row>
     <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -3179,30 +3158,30 @@
     </row>
     <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3210,13 +3189,13 @@
     </row>
     <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -3224,16 +3203,16 @@
     </row>
     <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3244,16 +3223,16 @@
     </row>
     <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3264,16 +3243,16 @@
     </row>
     <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3287,16 +3266,16 @@
     </row>
     <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3307,16 +3286,16 @@
     </row>
     <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3327,16 +3306,16 @@
     </row>
     <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3347,16 +3326,16 @@
     </row>
     <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3367,16 +3346,16 @@
     </row>
     <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3387,16 +3366,16 @@
     </row>
     <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3407,16 +3386,16 @@
     </row>
     <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3427,16 +3406,16 @@
     </row>
     <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3447,16 +3426,16 @@
     </row>
     <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3467,16 +3446,16 @@
     </row>
     <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3487,16 +3466,16 @@
     </row>
     <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3507,13 +3486,13 @@
     </row>
     <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3524,13 +3503,13 @@
     </row>
     <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3541,13 +3520,13 @@
     </row>
     <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3555,16 +3534,16 @@
     </row>
     <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3575,16 +3554,16 @@
     </row>
     <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3595,16 +3574,16 @@
     </row>
     <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3615,16 +3594,16 @@
     </row>
     <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3635,16 +3614,16 @@
     </row>
     <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3655,13 +3634,13 @@
     </row>
     <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3669,13 +3648,13 @@
     </row>
     <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -3683,13 +3662,13 @@
     </row>
     <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3697,16 +3676,16 @@
     </row>
     <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3717,16 +3696,16 @@
     </row>
     <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3737,16 +3716,16 @@
     </row>
     <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3757,16 +3736,16 @@
     </row>
     <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3777,16 +3756,16 @@
     </row>
     <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3797,16 +3776,16 @@
     </row>
     <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3817,16 +3796,16 @@
     </row>
     <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3837,16 +3816,16 @@
     </row>
     <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3866,16 +3845,16 @@
     </row>
     <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3895,16 +3874,16 @@
     </row>
     <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3924,13 +3903,13 @@
     </row>
     <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3942,18 +3921,18 @@
         <v>2</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3965,18 +3944,18 @@
         <v>5</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3985,21 +3964,21 @@
         <v>-10</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4010,16 +3989,16 @@
     </row>
     <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4030,16 +4009,16 @@
     </row>
     <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4050,16 +4029,16 @@
     </row>
     <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4079,16 +4058,16 @@
     </row>
     <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4108,16 +4087,16 @@
     </row>
     <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4137,13 +4116,13 @@
     </row>
     <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4157,13 +4136,13 @@
     </row>
     <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4174,16 +4153,16 @@
     </row>
     <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4203,16 +4182,16 @@
     </row>
     <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4232,16 +4211,16 @@
     </row>
     <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -4261,16 +4240,16 @@
     </row>
     <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4290,13 +4269,13 @@
     </row>
     <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4310,13 +4289,13 @@
     </row>
     <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4330,16 +4309,16 @@
     </row>
     <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4362,16 +4341,16 @@
     </row>
     <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4394,16 +4373,16 @@
     </row>
     <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4411,16 +4390,16 @@
     </row>
     <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4428,16 +4407,16 @@
     </row>
     <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4445,13 +4424,13 @@
     </row>
     <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4459,13 +4438,13 @@
     </row>
     <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4473,13 +4452,13 @@
     </row>
     <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4487,13 +4466,13 @@
     </row>
     <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4501,13 +4480,13 @@
     </row>
     <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4515,13 +4494,13 @@
     </row>
     <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4529,13 +4508,13 @@
     </row>
     <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -4543,25 +4522,25 @@
     </row>
     <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="N115" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="O115" s="1">
         <v>1027</v>
@@ -4575,16 +4554,16 @@
     </row>
     <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -4592,13 +4571,13 @@
     </row>
     <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -4606,13 +4585,13 @@
     </row>
     <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -4620,13 +4599,13 @@
     </row>
     <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -4634,13 +4613,13 @@
     </row>
     <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -4648,13 +4627,13 @@
     </row>
     <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -4662,13 +4641,13 @@
     </row>
     <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -4676,13 +4655,13 @@
     </row>
     <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -4690,13 +4669,13 @@
     </row>
     <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4705,24 +4684,24 @@
         <v>-20</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -4730,13 +4709,13 @@
     </row>
     <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -4744,13 +4723,13 @@
     </row>
     <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -4758,13 +4737,13 @@
     </row>
     <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -4772,13 +4751,13 @@
     </row>
     <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -4786,13 +4765,13 @@
     </row>
     <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E130" s="1">
         <v>2</v>
@@ -4800,13 +4779,13 @@
     </row>
     <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -4814,13 +4793,13 @@
     </row>
     <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -4828,13 +4807,13 @@
     </row>
     <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -4845,10 +4824,10 @@
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E134" s="1">
         <v>2</v>
@@ -4859,10 +4838,10 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
@@ -4873,10 +4852,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E136" s="1">
         <v>3</v>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="483">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -489,71 +489,959 @@
     <t>1118</t>
   </si>
   <si>
-    <t>网络巨魔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天龙人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拥有北京户口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>独生子女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡间微风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在农村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城中高楼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有美国国籍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>美籍华人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>家中老大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你最受父母宠爱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水性良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被淹死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先天免疫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会得艾滋病</t>
+    <t>额外家境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外颜值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外快乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:SPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:MNY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:CHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:STR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十而立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟来之财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90岁时家境+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30、40、50岁时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、18岁时智力+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、24岁时颜值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成年礼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开光之胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖传药丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能不明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境为0时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐天派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐为0时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质为0时体质+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命悬一线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智可生财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时智力&gt;8，家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舔狗甚多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时颜值&gt;8，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保胎丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会胎死腹中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[30]</t>
+  </si>
+  <si>
+    <t>AGE?[50]</t>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+  </si>
+  <si>
+    <t>AGE?[90]</t>
+  </si>
+  <si>
+    <t>AGE?[30,40,50]</t>
+  </si>
+  <si>
+    <t>AGE?[12,18]</t>
+  </si>
+  <si>
+    <t>AGE?[16,24]</t>
+  </si>
+  <si>
+    <t>(AGE?[20])&amp;(INT&gt;8)</t>
+  </si>
+  <si>
+    <t>(AGE?[20])&amp;(CHR&gt;8)</t>
+  </si>
+  <si>
+    <t>你不会遭遇枪击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白化病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考上哈佛大学的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界限突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练有方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相由心生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智多鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+2</t>
+  </si>
+  <si>
+    <t>灵光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用点-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-3，快乐+5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石健身卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身残志坚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活死人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开一扇窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痘痘脸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦痛侍僧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+2</t>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准扶贫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20、30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你10岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20,30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的40~50岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不吃洋快餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想罢了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会上清华大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢没事找事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比较自恋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺一门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能听到一些绝密消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界来客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三胎人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你尽可能生三胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的60~90岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加奥赛的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考公务员时一定能考上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入狱会减刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气稍微提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说做事很公平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万里挑一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有强迫症</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握不住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶着投胎，不要初始属性了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1085</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1086</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急了急了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离不弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会离婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>身高不矮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>足量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易胖体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值更容易降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左撇子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯使用左手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克苏鲁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还拥有其他人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不连续存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一个可选天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>魔法棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道有什么用……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返老还童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会回到年轻的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许时间会倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世重修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫失败重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三好生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交际花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投错行了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉-3，学识+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拥有超凡的翻打能力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒壮人胆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的酒量特别好。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交恐惧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序猿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你擅长计算机编程。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动健将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你擅长各类体育运动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三胎人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你尽可能生三胎。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂圆生涯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你入职时会成为一名桂圆。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天选之子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -561,179 +1449,171 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>额外家境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外颜值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外智力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外快乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超凡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母美貌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红颜薄命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2，体质-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属蛇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被蛇咬死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>半神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人中龙凤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生双重性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳之外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生无性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩情证道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终生不恋爱结婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花连连</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12岁前父母都健在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安童年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物大师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物不会意外死亡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十死无生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家运不顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头着地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胎教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班中红人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和同学容易处好关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能轻松学会骑车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永远的神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电竞天才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能和同性交往</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹之下</t>
+    <t>你在国外毕业后进入银行工作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国表社栋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你会从名牌大学毕业。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高学历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你硕士毕业后才会找工作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你博士毕业后才会找工作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学海无涯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱存不存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是不存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业后你会进入国有银行。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业后你会进入外资银行。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝顶聪明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草木茂盛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会秃顶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赐之缘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你会和同事结婚。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窝边草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会和同事结婚。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人舞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弟兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十而已</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大器晚成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜杠青年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工匠精神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操盘手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三好生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职读研</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -741,557 +1621,235 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>赌毒不沾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不生孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少数民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高考+5分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋爱机会提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老司机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的家人不会心脏病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你退伍后会当官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不孕不育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你生不出孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白头偕老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱人至少能活到70岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100岁时才能开启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:SPR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:MNY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:CHR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:STR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十而立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十不惑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30岁时家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从心所欲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老当益壮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时体质+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹤发童颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学前启蒙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟来之财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90岁时家境+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30、40、50岁时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、18岁时智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>形象管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16、24岁时颜值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成年礼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开光之胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖传药丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的小盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能不明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境为0时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐天派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐为0时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质为0时体质+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命悬一线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智可生财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若20岁时智力&gt;8，家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舔狗甚多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若20岁时颜值&gt;8，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保胎丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会胎死腹中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[30]</t>
-  </si>
-  <si>
-    <t>AGE?[40]</t>
-  </si>
-  <si>
-    <t>AGE?[50]</t>
-  </si>
-  <si>
-    <t>AGE?[60]</t>
-  </si>
-  <si>
-    <t>AGE?[70]</t>
-  </si>
-  <si>
-    <t>AGE?[5]</t>
-  </si>
-  <si>
-    <t>AGE?[18]</t>
-  </si>
-  <si>
-    <t>AGE?[90]</t>
-  </si>
-  <si>
-    <t>AGE?[30,40,50]</t>
-  </si>
-  <si>
-    <t>AGE?[12,18]</t>
-  </si>
-  <si>
-    <t>AGE?[16,24]</t>
-  </si>
-  <si>
-    <t>(AGE?[20])&amp;(INT&gt;8)</t>
-  </si>
-  <si>
-    <t>(AGE?[20])&amp;(CHR&gt;8)</t>
-  </si>
-  <si>
-    <t>你不会遭遇枪击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白化病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛宗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考上哈佛大学的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>驻颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界限突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时体质+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练有方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相由心生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时家境+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智多鑫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+2</t>
-  </si>
-  <si>
-    <t>灵光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神谕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>献祭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用点-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点-3，快乐+5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不懂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石健身卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时体质+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身残志坚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活死人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开一扇窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>痘痘脸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜能</t>
+    <t>系统宕机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过劳肥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会结婚。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你会通过各种专业考试。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能会遇到贵人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你家有人在银行工作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职级&gt;10时职级-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你会进行投资。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会离婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁时你的职级+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁之前你的职级不会提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26岁时你会读研究生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50岁时你的职级+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不生孩子。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一个可选天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉+1，学识+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1037</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏程万里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职后你会找到一份好工作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投错行了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉-3，学识+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守夜者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老黄牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学有所成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭局诱惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢家通吃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性大于5时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金汤勺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30，35，40岁时，职级+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网红达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学识-2，人脉+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年有离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你会辞职。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班时你经常摸鱼。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>久坐不动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通宵冠军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职级-1，收入-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学识&gt;7时职级+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉+2，健康-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝钉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经历多个岗位轮换。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[30,35,40]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[26]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26岁时财富+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入为0时收入+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1299,545 +1857,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SPR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哀兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&lt;-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抖M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦痛侍僧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海的女儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+2</t>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准扶贫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你20、30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你10岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[10]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[20,30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的40~50岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康饮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不吃洋快餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>互斥天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclusive[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想罢了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会上清华大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢没事找事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你和家人不会发生车祸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢旅游</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你比较自恋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺一门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可能听到一些绝密消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异界来客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024</t>
+    <t>30岁后你的学识+1，但你一定会秃顶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点钞机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拥有超凡的点钞能力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金算盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三胎人生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你尽可能生三胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的60~90岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加奥赛的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宙斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考公务员时一定能考上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>为人民服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入狱会减刑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气稍微提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天秤座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说做事很公平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万里挑一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你很攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有强迫症</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把握不住</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赶着投胎，不要初始属性了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1084</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1085</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1086</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>急了急了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不离不弃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会离婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>身高不矮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>足量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易胖体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值更容易降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族主义者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄帝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒律</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左撇子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>习惯使用左手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>克苏鲁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还拥有其他人格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不连续存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少一个可选天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>魔法棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道有什么用……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返老还童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能会回到年轻的时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时光倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许时间会倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转世重修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡劫失败重生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三好生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过劳肥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交际花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脉+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交恐惧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脉-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>早产儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大器晚成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50岁时职级+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投错行了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脉-3，学识+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点钞机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拥有超凡的点钞能力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金算盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拥有超凡的翻打能力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒壮人胆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的酒量特别好。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2244,11 +2288,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2269,55 +2313,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2340,37 +2384,37 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2378,10 +2422,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2392,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>470</v>
+        <v>360</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2414,6 +2458,9 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
+      <c r="L5" s="6" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2428,16 +2475,19 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
+      <c r="L6" s="6" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>471</v>
+        <v>361</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>472</v>
+        <v>362</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2448,15 +2498,15 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>458</v>
+        <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>459</v>
+        <v>356</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2465,10 +2515,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>456</v>
+        <v>354</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2482,15 +2532,15 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>460</v>
+        <v>363</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>461</v>
+        <v>357</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>-2</v>
       </c>
     </row>
@@ -2499,16 +2549,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>364</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>365</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2516,22 +2563,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,13 +2577,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>368</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>369</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,22 +2594,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>370</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2576,22 +2608,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>372</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>373</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2599,25 +2622,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>137</v>
+        <v>374</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="1">
-        <v>3</v>
-      </c>
       <c r="L16" s="6" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>382</v>
+        <v>389</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1016</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1017</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2625,13 +2651,16 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>375</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>376</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2639,13 +2668,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>141</v>
+        <v>378</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>142</v>
+        <v>379</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,13 +2688,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>380</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,28 +2708,19 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>246</v>
+        <v>384</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
+        <v>386</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2696,16 +2728,19 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>152</v>
+        <v>385</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>244</v>
+        <v>387</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2713,16 +2748,22 @@
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>153</v>
+        <v>393</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>476</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,19 +2771,16 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2750,13 +2788,19 @@
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>158</v>
+        <v>399</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,28 +2808,19 @@
         <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>159</v>
+        <v>401</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2793,22 +2828,19 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>161</v>
+        <v>404</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2816,19 +2848,19 @@
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>405</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>420</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>9</v>
@@ -2842,16 +2874,19 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>410</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>188</v>
+        <v>421</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>389</v>
+        <v>288</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,16 +2894,19 @@
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>165</v>
+        <v>406</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>166</v>
+        <v>422</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>389</v>
+        <v>288</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2876,13 +2914,19 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>167</v>
+        <v>411</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>195</v>
+        <v>423</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,10 +2934,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>412</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>168</v>
+        <v>424</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2904,13 +2948,19 @@
         <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>413</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>171</v>
+        <v>474</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2918,16 +2968,13 @@
         <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>457</v>
+        <v>326</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2935,28 +2982,16 @@
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>173</v>
+        <v>426</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K34" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2964,16 +2999,19 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="J35" s="1">
-        <v>-10</v>
+      <c r="G35" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2981,16 +3019,13 @@
         <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>407</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>428</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2998,16 +3033,13 @@
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>179</v>
+        <v>429</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3015,16 +3047,19 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>180</v>
+        <v>408</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>181</v>
+        <v>430</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3032,13 +3067,16 @@
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>416</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>183</v>
+        <v>431</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3046,10 +3084,10 @@
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>184</v>
+        <v>417</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>185</v>
+        <v>432</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -3060,13 +3098,16 @@
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
+        <v>418</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3074,13 +3115,19 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>191</v>
+        <v>433</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3088,16 +3135,28 @@
         <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>192</v>
+        <v>451</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>389</v>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,13 +3164,31 @@
         <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>194</v>
+        <v>453</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,13 +3196,19 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>196</v>
+        <v>454</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>369</v>
+        <v>473</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,13 +3216,19 @@
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>198</v>
+        <v>455</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>197</v>
+        <v>456</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3147,13 +3236,19 @@
         <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>199</v>
+        <v>457</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>200</v>
+        <v>458</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3161,16 +3256,16 @@
         <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>459</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>202</v>
+        <v>460</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>389</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3178,10 +3273,10 @@
         <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>203</v>
+        <v>440</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3192,13 +3287,13 @@
         <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>249</v>
+        <v>442</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>205</v>
+        <v>461</v>
       </c>
       <c r="E50" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3206,19 +3301,19 @@
         <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>263</v>
+        <v>444</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="1">
-        <v>2</v>
+      <c r="I51" s="1">
+        <v>-3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3226,19 +3321,16 @@
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>215</v>
+        <v>462</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
       </c>
-      <c r="K52" s="1">
-        <v>2</v>
+      <c r="J52" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3246,22 +3338,16 @@
         <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>3</v>
+      <c r="J53" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,19 +3355,16 @@
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>218</v>
+        <v>464</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>266</v>
+        <v>465</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="1">
-        <v>2</v>
+      <c r="J54" s="1">
+        <v>-3</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3289,19 +3372,19 @@
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>220</v>
+        <v>447</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>267</v>
+        <v>466</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3309,19 +3392,19 @@
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>222</v>
+        <v>448</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>223</v>
+        <v>467</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>266</v>
+        <v>477</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="J56" s="1">
-        <v>2</v>
+      <c r="G56" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3329,19 +3412,19 @@
         <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>224</v>
+        <v>449</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>267</v>
+        <v>468</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J57" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3349,16 +3432,13 @@
         <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>226</v>
+        <v>469</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
@@ -3369,16 +3449,16 @@
         <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" s="1">
         <v>2</v>
@@ -3389,16 +3469,16 @@
         <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" s="1">
         <v>4</v>
@@ -3409,16 +3489,16 @@
         <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" s="1">
         <v>1</v>
@@ -3429,16 +3509,16 @@
         <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" s="1">
         <v>1</v>
@@ -3449,16 +3529,16 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63" s="1">
         <v>1</v>
@@ -3469,16 +3549,16 @@
         <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -3489,13 +3569,13 @@
         <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
@@ -3506,10 +3586,10 @@
         <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3523,13 +3603,13 @@
         <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3537,16 +3617,16 @@
         <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68" s="1">
         <v>1</v>
@@ -3557,16 +3637,16 @@
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -3577,16 +3657,16 @@
         <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -3597,16 +3677,16 @@
         <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H71" s="1">
         <v>2</v>
@@ -3617,16 +3697,16 @@
         <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G72" s="1">
         <v>2</v>
@@ -3637,13 +3717,13 @@
         <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3651,13 +3731,13 @@
         <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,13 +3745,13 @@
         <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3679,16 +3759,16 @@
         <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76" s="1">
         <v>3</v>
@@ -3699,16 +3779,16 @@
         <v>84</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I77" s="1">
         <v>3</v>
@@ -3719,16 +3799,16 @@
         <v>85</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78" s="1">
         <v>3</v>
@@ -3739,16 +3819,16 @@
         <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79" s="1">
         <v>3</v>
@@ -3759,16 +3839,16 @@
         <v>87</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1">
         <v>3</v>
@@ -3779,16 +3859,16 @@
         <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" s="1">
         <v>3</v>
@@ -3799,16 +3879,16 @@
         <v>89</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H82" s="1">
         <v>3</v>
@@ -3819,16 +3899,16 @@
         <v>90</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83" s="1">
         <v>1</v>
@@ -3848,16 +3928,16 @@
         <v>91</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" s="1">
         <v>2</v>
@@ -3877,16 +3957,16 @@
         <v>92</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85" s="1">
         <v>3</v>
@@ -3906,13 +3986,13 @@
         <v>93</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F86" s="1">
         <v>-2</v>
@@ -3921,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3929,13 +4009,13 @@
         <v>94</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" s="1">
         <v>-3</v>
@@ -3944,7 +4024,7 @@
         <v>5</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3952,19 +4032,19 @@
         <v>95</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="E88" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88" s="1">
         <v>-10</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3972,16 +4052,16 @@
         <v>96</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" s="1">
         <v>3</v>
@@ -3992,16 +4072,16 @@
         <v>97</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="E90" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90" s="1">
         <v>3</v>
@@ -4012,16 +4092,16 @@
         <v>98</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" s="1">
         <v>3</v>
@@ -4032,16 +4112,16 @@
         <v>99</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -4061,16 +4141,16 @@
         <v>100</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93" s="1">
         <v>2</v>
@@ -4090,16 +4170,16 @@
         <v>101</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>325</v>
+        <v>233</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -4119,13 +4199,13 @@
         <v>102</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>465</v>
+        <v>358</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>466</v>
+        <v>359</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I95" s="1">
         <v>-3</v>
@@ -4139,13 +4219,13 @@
         <v>103</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>329</v>
+        <v>237</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I96" s="1">
         <v>-1</v>
@@ -4156,16 +4236,16 @@
         <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -4185,16 +4265,16 @@
         <v>105</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H98" s="1">
         <v>1</v>
@@ -4214,16 +4294,16 @@
         <v>106</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
       <c r="E99" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" s="1">
         <v>2</v>
@@ -4243,16 +4323,16 @@
         <v>107</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>338</v>
+        <v>246</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100" s="1">
         <v>2</v>
@@ -4272,13 +4352,13 @@
         <v>108</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>341</v>
+        <v>249</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G101" s="1">
         <v>2</v>
@@ -4292,13 +4372,13 @@
         <v>109</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F102" s="1">
         <v>1</v>
@@ -4312,16 +4392,16 @@
         <v>110</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>349</v>
+        <v>257</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
@@ -4344,16 +4424,16 @@
         <v>111</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>350</v>
+        <v>258</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="E104" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G104" s="1">
         <v>2</v>
@@ -4376,16 +4456,16 @@
         <v>112</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>357</v>
+        <v>265</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4393,16 +4473,16 @@
         <v>113</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>360</v>
+        <v>268</v>
       </c>
       <c r="E106" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4410,16 +4490,16 @@
         <v>114</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>352</v>
+        <v>260</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="E107" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,13 +4507,13 @@
         <v>115</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="E108" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4441,13 +4521,13 @@
         <v>116</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>366</v>
+        <v>274</v>
       </c>
       <c r="E109" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,13 +4535,13 @@
         <v>117</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="E110" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4469,13 +4549,13 @@
         <v>118</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>372</v>
+        <v>279</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>370</v>
+        <v>277</v>
       </c>
       <c r="E111" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4483,13 +4563,13 @@
         <v>119</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>373</v>
+        <v>280</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>371</v>
+        <v>278</v>
       </c>
       <c r="E112" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4497,13 +4577,13 @@
         <v>120</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>374</v>
+        <v>281</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
       <c r="E113" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4511,13 +4591,13 @@
         <v>121</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>377</v>
+        <v>284</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
       <c r="E114" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4525,22 +4605,22 @@
         <v>122</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>393</v>
+        <v>292</v>
       </c>
       <c r="E115" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="O115" s="1">
         <v>1027</v>
@@ -4557,13 +4637,13 @@
         <v>123</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>395</v>
+        <v>294</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>394</v>
+        <v>293</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>396</v>
+        <v>295</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -4574,13 +4654,13 @@
         <v>124</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>397</v>
+        <v>296</v>
       </c>
       <c r="E117" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4588,13 +4668,13 @@
         <v>125</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>410</v>
+        <v>309</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>399</v>
+        <v>298</v>
       </c>
       <c r="E118" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4602,13 +4682,13 @@
         <v>126</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="E119" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,207 +4696,207 @@
         <v>127</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>414</v>
+        <v>313</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>413</v>
+        <v>312</v>
       </c>
       <c r="E120" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>400</v>
+        <v>299</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="E121" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>417</v>
+        <v>316</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
       <c r="E122" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>419</v>
+        <v>318</v>
       </c>
       <c r="E123" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>403</v>
+        <v>302</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>426</v>
+        <v>325</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>421</v>
+        <v>320</v>
       </c>
       <c r="E124" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F124" s="1">
         <v>-20</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>423</v>
+        <v>322</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>427</v>
+        <v>326</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="E125" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>405</v>
+        <v>304</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>432</v>
+        <v>331</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>431</v>
+        <v>330</v>
       </c>
       <c r="E126" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>433</v>
+        <v>332</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>434</v>
+        <v>333</v>
       </c>
       <c r="E127" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>407</v>
+        <v>306</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>436</v>
+        <v>335</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>435</v>
+        <v>334</v>
       </c>
       <c r="E128" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>438</v>
+        <v>336</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="E129" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>409</v>
+        <v>308</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="E130" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>429</v>
+        <v>328</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>443</v>
+        <v>341</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>442</v>
+        <v>340</v>
       </c>
       <c r="E131" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>430</v>
+        <v>329</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>444</v>
+        <v>342</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>445</v>
+        <v>343</v>
       </c>
       <c r="E132" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>446</v>
+        <v>344</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>447</v>
+        <v>345</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>448</v>
+        <v>346</v>
       </c>
       <c r="E133" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4824,13 +4904,13 @@
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>449</v>
+        <v>347</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>450</v>
+        <v>348</v>
       </c>
       <c r="E134" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4838,13 +4918,13 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="E135" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4852,10 +4932,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="E136" s="1">
         <v>3</v>
